--- a/jpcore-r4/feature/swg1-ライセンス・免責事項/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/feature/swg1-ライセンス・免責事項/StructureDefinition-jp-organization.xlsx
@@ -252,7 +252,7 @@
     <t>*</t>
   </si>
   <si>
-    <t>A grouping of people or organizations with a common purpose/共通の目的を持った人や組織の集まり</t>
+    <t>A grouping of people or organizations with a common purpose/共通の目的を持った人や組織の集まり【詳細参照】</t>
   </si>
   <si>
     <t>A formally or informally recognized grouping of people or organizations formed for the purpose of achieving some form of collective action.  Includes companies, institutions, corporations, departments, community groups, healthcare practice groups, payer/insurer, etc.
@@ -469,7 +469,7 @@
 </t>
   </si>
   <si>
-    <t>点数表コード１桁（医科１、歯科３）を表現するExtension</t>
+    <t>点数表コード１桁（医科１、歯科３）を表現するExtension【詳細参照】</t>
   </si>
   <si>
     <t>点数表コード１桁（医科１、歯科３）表現するためのExtension。 JP Core Organizationプロファイルで利用されることを想定しているが、他のリソースでも利用可能である</t>
@@ -487,7 +487,7 @@
 </t>
   </si>
   <si>
-    <t>保険医療機関番号７桁を表現するExtension</t>
+    <t>保険医療機関番号７桁を表現するExtension【詳細参照】</t>
   </si>
   <si>
     <t>保険医療機関番号７桁を表現するためのExtension。 JP Core Organizationプロファイルで利用されることを想定しているが、他のリソースでも利用可能である</t>
@@ -528,7 +528,7 @@
 </t>
   </si>
   <si>
-    <t>Identifies this organization  across multiple systems/複数のシステムでこの組織を識別</t>
+    <t>Identifies this organization  across multiple systems/複数のシステムでこの組織を識別【詳細参照】</t>
   </si>
   <si>
     <t>Identifier for the organization that is used to identify the organization across multiple disparate systems.
@@ -829,7 +829,7 @@
 </t>
   </si>
   <si>
-    <t>Whether the organization's record is still in active use / 組織の記録がまだ有効に使われているかどうか</t>
+    <t>Whether the organization's record is still in active use / 組織の記録がまだ有効に使われているかどうか【詳細参照】</t>
   </si>
   <si>
     <t>Whether the organization's record is still in active use.
@@ -864,7 +864,7 @@
     <t>Organization.type</t>
   </si>
   <si>
-    <t>Kind of organization / 組織の種類</t>
+    <t>Kind of organization / 組織の種類【詳細参照】</t>
   </si>
   <si>
     <t>The kind(s) of organization that this is.
@@ -904,7 +904,7 @@
     <t>Organization.name</t>
   </si>
   <si>
-    <t>Name used for the organization / 組織に使用されている名称</t>
+    <t>Name used for the organization / 組織に使用されている名称【詳細参照】</t>
   </si>
   <si>
     <t>A name associated with the organization.
@@ -931,7 +931,7 @@
     <t>Organization.alias</t>
   </si>
   <si>
-    <t>A list of alternate names that the organization is known as, or was known as in the past / 組織が知られている、または過去に知られていた別名のリスト</t>
+    <t>A list of alternate names that the organization is known as, or was known as in the past / 組織が知られている、または過去に知られていた別名のリスト【詳細参照】</t>
   </si>
   <si>
     <t>A list of alternate names that the organization is known as, or was known as in the past.
@@ -955,7 +955,7 @@
 </t>
   </si>
   <si>
-    <t>A contact detail for the organization / 組織の連絡先詳細</t>
+    <t>A contact detail for the organization / 組織の連絡先詳細【詳細参照】</t>
   </si>
   <si>
     <t>A contact detail for the organization.
@@ -994,7 +994,7 @@
 </t>
   </si>
   <si>
-    <t>An address for the organization / 組織の住所</t>
+    <t>An address for the organization / 組織の住所【詳細参照】</t>
   </si>
   <si>
     <t>An address for the organization.
@@ -1029,7 +1029,7 @@
     <t>Organization.partOf</t>
   </si>
   <si>
-    <t>The organization of which this organization forms a part</t>
+    <t>The organization of which this organization forms a part【詳細参照】</t>
   </si>
   <si>
     <t>The organization of which this organization forms a part.
@@ -1053,7 +1053,7 @@
 </t>
   </si>
   <si>
-    <t>Contact for the organization for a certain purpose　特定の目的のための組織の連絡先</t>
+    <t>Contact for the organization for a certain purpose　特定の目的のための組織の連絡先【詳細参照】</t>
   </si>
   <si>
     <t>Contact for the organization for a certain purpose.
@@ -1188,7 +1188,7 @@
 </t>
   </si>
   <si>
-    <t>Technical endpoints providing access to services operated for the organization　　組織のために運営されているサービスへのアクセスを提供する技術的エンドポイント</t>
+    <t>Technical endpoints providing access to services operated for the organization　　組織のために運営されているサービスへのアクセスを提供する技術的エンドポイント【詳細参照】</t>
   </si>
   <si>
     <t>Technical endpoints providing access to services operated for the organization.
@@ -1522,7 +1522,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="119.01171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="125.61328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
